--- a/PopfreSurvey/CottonwoodSurvey.xlsx
+++ b/PopfreSurvey/CottonwoodSurvey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1205BFD2-36A1-4021-A15A-90FD243F4A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3605080-4B1A-47FC-89F7-1ACB3C1B0061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="711" firstSheet="2" activeTab="9" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="3615" yWindow="2115" windowWidth="21600" windowHeight="11385" tabRatio="711" firstSheet="2" activeTab="3" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
@@ -8152,7 +8152,7 @@
       <xdr:rowOff>26737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>13368</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>173790</xdr:rowOff>
@@ -14885,7 +14885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285519EE-B10C-45CF-9970-A060D6349D1C}">
   <dimension ref="A1:F460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -33566,7 +33566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A198A519-8398-4329-A6FC-795589BF833D}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -43525,19 +43525,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B619D04-E133-4BF1-9395-0C4F8970C308}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.7109375" customWidth="1"/>
+    <col min="24" max="26" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>102023</v>
       </c>
@@ -43604,17 +43604,19 @@
       <c r="X1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -43686,19 +43688,27 @@
         <v>3.3680239158136192</v>
       </c>
       <c r="Y2">
+        <f xml:space="preserve"> STDEV(B6:K6) / SQRT(COUNT(B6:K6))</f>
+        <v>0.80593810060214222</v>
+      </c>
+      <c r="Z2">
         <f>SUM(B2:K2)</f>
         <v>451</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>GEOMEAN(L6:U6)</f>
         <v>7.3718844909256172</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
+        <f xml:space="preserve"> STDEV(L6:U6) / SQRT(COUNT(L6:U6))</f>
+        <v>4.8877199587209503</v>
+      </c>
+      <c r="AC2">
         <f>SUM(L2:U2)</f>
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -43770,19 +43780,27 @@
         <v>2.9973791895270216</v>
       </c>
       <c r="Y3">
+        <f xml:space="preserve"> STDEV(B15:K15) / SQRT(COUNT(B15:K15))</f>
+        <v>1.3583142592106225</v>
+      </c>
+      <c r="Z3">
         <f>SUM(B11:K11)</f>
         <v>263</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f>GEOMEAN(L15:U15)</f>
         <v>6.8252267978561836</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
+        <f xml:space="preserve"> STDEV(L15:U15) / SQRT(COUNT(L15:U15))</f>
+        <v>6.7298378137845027</v>
+      </c>
+      <c r="AC3">
         <f>SUM(L11:U11)</f>
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -43854,19 +43872,27 @@
         <v>2.0846503512577725</v>
       </c>
       <c r="Y4">
+        <f xml:space="preserve"> STDEV(B24:K24) / SQRT(COUNT(B24:K24))</f>
+        <v>2.4013740971093962</v>
+      </c>
+      <c r="Z4">
         <f>SUM(B20:K20)</f>
         <v>306</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>GEOMEAN(L24:U24)</f>
         <v>1.9568612658034923</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
+        <f xml:space="preserve"> STDEV(L24:U24) / SQRT(COUNT(L24:U24))</f>
+        <v>4.1694309035001123</v>
+      </c>
+      <c r="AC4">
         <f>SUM(L20:U20)</f>
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -43931,7 +43957,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -43996,7 +44022,7 @@
         <v>35.987261146496813</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -44061,7 +44087,7 @@
         <v>28.509474562347254</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -44126,7 +44152,7 @@
         <v>2.4908729060074632</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -44191,7 +44217,7 @@
         <v>114.45575763254872</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>62024</v>
       </c>
@@ -44256,7 +44282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -44321,7 +44347,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -44386,7 +44412,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -44451,7 +44477,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -44516,7 +44542,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -44581,7 +44607,7 @@
         <v>47.452229299363054</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -45364,7 +45390,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="X2:X4 AA2:AA4 Z2:Z4 Y2:Y4" formulaRange="1"/>
+    <ignoredError sqref="X2:X4 AC2:AC4 AA2:AA4 Z2:Z4" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/PopfreSurvey/CottonwoodSurvey.xlsx
+++ b/PopfreSurvey/CottonwoodSurvey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3605080-4B1A-47FC-89F7-1ACB3C1B0061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD3FAD-2EB9-4299-A2E6-DF333F806CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2115" windowWidth="21600" windowHeight="11385" tabRatio="711" firstSheet="2" activeTab="3" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" firstSheet="2" activeTab="7" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
@@ -43527,7 +43527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B619D04-E133-4BF1-9395-0C4F8970C308}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="106" workbookViewId="0">
       <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
@@ -58992,8 +58992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95AE59-CBE5-4A6B-B2CA-C0174A2A8D84}">
   <dimension ref="A1:AZ180"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AC151"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN150" sqref="AN150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PopfreSurvey/CottonwoodSurvey.xlsx
+++ b/PopfreSurvey/CottonwoodSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD3FAD-2EB9-4299-A2E6-DF333F806CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1321C77C-1F4A-4493-ADB8-55BF9CD65BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" firstSheet="2" activeTab="7" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="711" firstSheet="2" activeTab="3" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="137">
   <si>
     <t>LB1</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Visit</t>
   </si>
 </sst>
 </file>
@@ -1986,6 +1989,1473 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$14:$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2292993630573248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63694267515923564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$15:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5477707006369426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5477707006369426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5477707006369426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$16:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.2941176470588234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.70242214532872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.006920415224913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$17:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.586666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$18:$Z$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.3602264685067231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3694267515923562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1139419674451521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$19:$Z$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4154281670205235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2738853503184713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42462845010615707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$20:$Z$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1942675159235667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63694267515923564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9617834394904455E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$21:$Z$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8216560509554141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3089171974522293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15923566878980891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$22:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.9355980184005661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0679405520169851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.75725406935598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$X$23:$Z$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2173913043478262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.255198487712665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1153119092627595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0E3D-47B8-B2E4-49BCD9D115C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="431319904"/>
+        <c:axId val="431314624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="431319904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431314624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431314624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431319904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.2292993630573248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5477707006369426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.2941176470588234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.3602264685067231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4154281670205235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.1942675159235667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.8216560509554141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.9355980184005661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For R'!$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For R'!$X$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.2173913043478262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E9D5-49AC-AD45-7A193AA3E6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309416560"/>
+        <c:axId val="309418000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309416560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309418000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309418000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309416560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2593,7 +4063,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3205,7 +4675,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3817,7 +5287,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4352,7 +5822,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5124,6 +6594,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5628,7 +7178,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5736,6 +7286,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5746,6 +7301,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5777,6 +7337,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6131,7 +7694,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6158,8 +7721,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6260,7 +7823,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6292,10 +7855,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6335,22 +7898,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6455,8 +8019,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6588,19 +8152,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6614,6 +8179,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8142,20 +9718,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>300789</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>26737</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>13368</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>173790</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>95011</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8175,6 +10757,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578302</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4F4530-EFAA-12BB-82D7-6062F2FEABC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>415018</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>496661</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23F76DE-BB91-5F02-86BF-51CDEEC7CD3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -43525,19 +46179,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B619D04-E133-4BF1-9395-0C4F8970C308}">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X13" activeCellId="1" sqref="X14:X23 X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>102023</v>
       </c>
@@ -43601,22 +46255,22 @@
       <c r="U1" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -43680,35 +46334,35 @@
       <c r="U2">
         <v>113</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="X2" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f>GEOMEAN(B6:K6)</f>
         <v>3.3680239158136192</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f xml:space="preserve"> STDEV(B6:K6) / SQRT(COUNT(B6:K6))</f>
         <v>0.80593810060214222</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>SUM(B2:K2)</f>
         <v>451</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>GEOMEAN(L6:U6)</f>
         <v>7.3718844909256172</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <f xml:space="preserve"> STDEV(L6:U6) / SQRT(COUNT(L6:U6))</f>
         <v>4.8877199587209503</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <f>SUM(L2:U2)</f>
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -43772,35 +46426,35 @@
       <c r="U3">
         <v>3.14</v>
       </c>
-      <c r="W3" s="50" t="s">
+      <c r="X3" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f>GEOMEAN(B15:K15)</f>
         <v>2.9973791895270216</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f xml:space="preserve"> STDEV(B15:K15) / SQRT(COUNT(B15:K15))</f>
         <v>1.3583142592106225</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f>SUM(B11:K11)</f>
         <v>263</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f>GEOMEAN(L15:U15)</f>
         <v>6.8252267978561836</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f xml:space="preserve"> STDEV(L15:U15) / SQRT(COUNT(L15:U15))</f>
         <v>6.7298378137845027</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <f>SUM(L11:U11)</f>
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -43864,35 +46518,35 @@
       <c r="U4">
         <v>3.14</v>
       </c>
-      <c r="W4" s="50" t="s">
+      <c r="X4" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f>GEOMEAN(C24:K24)</f>
         <v>2.0846503512577725</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f xml:space="preserve"> STDEV(B24:K24) / SQRT(COUNT(B24:K24))</f>
         <v>2.4013740971093962</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>SUM(B20:K20)</f>
         <v>306</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f>GEOMEAN(L24:U24)</f>
         <v>1.9568612658034923</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f xml:space="preserve"> STDEV(L24:U24) / SQRT(COUNT(L24:U24))</f>
         <v>4.1694309035001123</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f>SUM(L20:U20)</f>
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -43957,7 +46611,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -44022,7 +46676,7 @@
         <v>35.987261146496813</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -44086,8 +46740,11 @@
       <c r="U7">
         <v>28.509474562347254</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -44151,8 +46808,68 @@
       <c r="U8">
         <v>2.4908729060074632</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -44216,8 +46933,71 @@
       <c r="U9">
         <v>114.45575763254872</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>2.2292993630573248</v>
+      </c>
+      <c r="Y9">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="Z9">
+        <v>7.2941176470588234</v>
+      </c>
+      <c r="AA9">
+        <v>6.2</v>
+      </c>
+      <c r="AB9">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="AC9">
+        <v>1.4154281670205235</v>
+      </c>
+      <c r="AD9">
+        <v>1.1942675159235667</v>
+      </c>
+      <c r="AE9">
+        <v>3.8216560509554141</v>
+      </c>
+      <c r="AF9">
+        <v>6.9355980184005661</v>
+      </c>
+      <c r="AG9">
+        <v>2.2173913043478262</v>
+      </c>
+      <c r="AH9">
+        <v>1.3378378378378379</v>
+      </c>
+      <c r="AI9">
+        <v>0.2273588480485032</v>
+      </c>
+      <c r="AJ9">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="AK9">
+        <v>18.789808917197451</v>
+      </c>
+      <c r="AL9">
+        <v>6.0863411181882512</v>
+      </c>
+      <c r="AM9">
+        <v>3.2643312101910826</v>
+      </c>
+      <c r="AN9">
+        <v>11.323425336164188</v>
+      </c>
+      <c r="AO9">
+        <v>39.490445859872608</v>
+      </c>
+      <c r="AP9">
+        <v>35.244161358811041</v>
+      </c>
+      <c r="AQ9">
+        <v>35.987261146496813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>62024</v>
       </c>
@@ -44281,8 +47061,71 @@
       <c r="U10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="Y10">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="Z10">
+        <v>13.70242214532872</v>
+      </c>
+      <c r="AA10">
+        <v>8.4</v>
+      </c>
+      <c r="AB10">
+        <v>6.3694267515923562</v>
+      </c>
+      <c r="AC10">
+        <v>1.2738853503184713</v>
+      </c>
+      <c r="AD10">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="AE10">
+        <v>2.3089171974522293</v>
+      </c>
+      <c r="AF10">
+        <v>8.0679405520169851</v>
+      </c>
+      <c r="AG10">
+        <v>3.255198487712665</v>
+      </c>
+      <c r="AH10">
+        <v>0.68918918918918914</v>
+      </c>
+      <c r="AI10">
+        <v>0.2273588480485032</v>
+      </c>
+      <c r="AJ10">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="AK10">
+        <v>17.197452229299362</v>
+      </c>
+      <c r="AL10">
+        <v>6.5109695682944091</v>
+      </c>
+      <c r="AM10">
+        <v>3.4235668789808917</v>
+      </c>
+      <c r="AN10">
+        <v>4.6709129511677281</v>
+      </c>
+      <c r="AO10">
+        <v>56.687898089171973</v>
+      </c>
+      <c r="AP10">
+        <v>39.490445859872615</v>
+      </c>
+      <c r="AQ10">
+        <v>47.452229299363054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -44346,8 +47189,71 @@
       <c r="U11">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="Z11">
+        <v>14.006920415224913</v>
+      </c>
+      <c r="AA11">
+        <v>22.586666666666666</v>
+      </c>
+      <c r="AB11">
+        <v>3.1139419674451521</v>
+      </c>
+      <c r="AC11">
+        <v>0.42462845010615707</v>
+      </c>
+      <c r="AD11">
+        <v>7.9617834394904455E-2</v>
+      </c>
+      <c r="AE11">
+        <v>0.15923566878980891</v>
+      </c>
+      <c r="AF11">
+        <v>10.75725406935598</v>
+      </c>
+      <c r="AG11">
+        <v>5.1153119092627595</v>
+      </c>
+      <c r="AH11">
+        <v>0.41891891891891891</v>
+      </c>
+      <c r="AI11">
+        <v>5.6839712012125801E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>2.4062278839348901</v>
+      </c>
+      <c r="AK11">
+        <v>0.95541401273885351</v>
+      </c>
+      <c r="AL11">
+        <v>2.9723991507430996</v>
+      </c>
+      <c r="AM11">
+        <v>2.0700636942675157</v>
+      </c>
+      <c r="AN11">
+        <v>0.28308563340410475</v>
+      </c>
+      <c r="AO11">
+        <v>42.038216560509554</v>
+      </c>
+      <c r="AP11">
+        <v>13.163481953290871</v>
+      </c>
+      <c r="AQ11">
+        <v>15.605095541401273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -44411,8 +47317,17 @@
       <c r="U12">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -44476,8 +47391,17 @@
       <c r="U13">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X13" s="48">
+        <v>45200</v>
+      </c>
+      <c r="Y13" s="48">
+        <v>45444</v>
+      </c>
+      <c r="Z13" s="48">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -44541,8 +47465,20 @@
       <c r="U14">
         <v>0.28048780487804881</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>2.2292993630573248</v>
+      </c>
+      <c r="Y14">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -44606,8 +47542,20 @@
       <c r="U15">
         <v>47.452229299363054</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="Y15">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="Z15">
+        <v>2.5477707006369426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -44671,8 +47619,20 @@
       <c r="U16">
         <v>33.205305496347954</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>7.2941176470588234</v>
+      </c>
+      <c r="Y16">
+        <v>13.70242214532872</v>
+      </c>
+      <c r="Z16">
+        <v>14.006920415224913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -44736,8 +47696,20 @@
       <c r="U17">
         <v>3.8280671657225191</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W17" t="s">
+        <v>10</v>
+      </c>
+      <c r="X17">
+        <v>6.2</v>
+      </c>
+      <c r="Y17">
+        <v>8.4</v>
+      </c>
+      <c r="Z17">
+        <v>22.586666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -44801,8 +47773,20 @@
       <c r="U18">
         <v>86.741700338167135</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="Y18">
+        <v>6.3694267515923562</v>
+      </c>
+      <c r="Z18">
+        <v>3.1139419674451521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>102024</v>
       </c>
@@ -44866,8 +47850,20 @@
       <c r="U19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19">
+        <v>1.4154281670205235</v>
+      </c>
+      <c r="Y19">
+        <v>1.2738853503184713</v>
+      </c>
+      <c r="Z19">
+        <v>0.42462845010615707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -44931,8 +47927,20 @@
       <c r="U20">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W20" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20">
+        <v>1.1942675159235667</v>
+      </c>
+      <c r="Y20">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="Z20">
+        <v>7.9617834394904455E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -44996,8 +48004,20 @@
       <c r="U21">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>15</v>
+      </c>
+      <c r="X21">
+        <v>3.8216560509554141</v>
+      </c>
+      <c r="Y21">
+        <v>2.3089171974522293</v>
+      </c>
+      <c r="Z21">
+        <v>0.15923566878980891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -45061,8 +48081,20 @@
       <c r="U22">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22">
+        <v>6.9355980184005661</v>
+      </c>
+      <c r="Y22">
+        <v>8.0679405520169851</v>
+      </c>
+      <c r="Z22">
+        <v>10.75725406935598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -45126,8 +48158,20 @@
       <c r="U23">
         <v>0.28048780487804881</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23">
+        <v>2.2173913043478262</v>
+      </c>
+      <c r="Y23">
+        <v>3.255198487712665</v>
+      </c>
+      <c r="Z23">
+        <v>5.1153119092627595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -45191,8 +48235,20 @@
       <c r="U24">
         <v>15.605095541401273</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>108</v>
+      </c>
+      <c r="X24">
+        <v>1.3378378378378379</v>
+      </c>
+      <c r="Y24">
+        <v>0.68918918918918914</v>
+      </c>
+      <c r="Z24">
+        <v>0.41891891891891891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -45256,8 +48312,20 @@
       <c r="U25">
         <v>47.370588773556896</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W25" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25">
+        <v>0.2273588480485032</v>
+      </c>
+      <c r="Y25">
+        <v>0.2273588480485032</v>
+      </c>
+      <c r="Z25">
+        <v>5.6839712012125801E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -45321,8 +48389,20 @@
       <c r="U26">
         <v>4.6881842091854287</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W26" t="s">
+        <v>110</v>
+      </c>
+      <c r="X26">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="Y26">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="Z26">
+        <v>2.4062278839348901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -45385,12 +48465,108 @@
       </c>
       <c r="U27">
         <v>101.04250741842657</v>
+      </c>
+      <c r="W27" t="s">
+        <v>111</v>
+      </c>
+      <c r="X27">
+        <v>18.789808917197451</v>
+      </c>
+      <c r="Y27">
+        <v>17.197452229299362</v>
+      </c>
+      <c r="Z27">
+        <v>0.95541401273885351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>112</v>
+      </c>
+      <c r="X28">
+        <v>6.0863411181882512</v>
+      </c>
+      <c r="Y28">
+        <v>6.5109695682944091</v>
+      </c>
+      <c r="Z28">
+        <v>2.9723991507430996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>113</v>
+      </c>
+      <c r="X29">
+        <v>3.2643312101910826</v>
+      </c>
+      <c r="Y29">
+        <v>3.4235668789808917</v>
+      </c>
+      <c r="Z29">
+        <v>2.0700636942675157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W30" t="s">
+        <v>114</v>
+      </c>
+      <c r="X30">
+        <v>11.323425336164188</v>
+      </c>
+      <c r="Y30">
+        <v>4.6709129511677281</v>
+      </c>
+      <c r="Z30">
+        <v>0.28308563340410475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W31" t="s">
+        <v>115</v>
+      </c>
+      <c r="X31">
+        <v>39.490445859872608</v>
+      </c>
+      <c r="Y31">
+        <v>56.687898089171973</v>
+      </c>
+      <c r="Z31">
+        <v>42.038216560509554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W32" t="s">
+        <v>116</v>
+      </c>
+      <c r="X32">
+        <v>35.244161358811041</v>
+      </c>
+      <c r="Y32">
+        <v>39.490445859872615</v>
+      </c>
+      <c r="Z32">
+        <v>13.163481953290871</v>
+      </c>
+    </row>
+    <row r="33" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W33" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33">
+        <v>35.987261146496813</v>
+      </c>
+      <c r="Y33">
+        <v>47.452229299363054</v>
+      </c>
+      <c r="Z33">
+        <v>15.605095541401273</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="X2:X4 AC2:AC4 AA2:AA4 Z2:Z4" formulaRange="1"/>
+    <ignoredError sqref="Y2:Y4 AD2:AD4 AB2:AB4 AA2:AA4" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -58992,7 +62168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95AE59-CBE5-4A6B-B2CA-C0174A2A8D84}">
   <dimension ref="A1:AZ180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AN150" sqref="AN150"/>
     </sheetView>
   </sheetViews>

--- a/PopfreSurvey/CottonwoodSurvey.xlsx
+++ b/PopfreSurvey/CottonwoodSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D9E76A-C462-4142-960D-9D1559EA08A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D95A6-0FB6-4E81-9DA7-936C68FC21F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="711" firstSheet="4" activeTab="4" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="711" firstSheet="9" activeTab="10" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
@@ -18759,8 +18759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048D639A-75DC-476B-B8B1-038D6C5C49E9}">
   <dimension ref="A1:AY110"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScale="47" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AY9"/>
+    <sheetView tabSelected="1" topLeftCell="H64" zoomScale="47" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3:AD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54125,7 +54125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B619D04-E133-4BF1-9395-0C4F8970C308}">
   <dimension ref="A1:AQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="U1" zoomScale="43" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
